--- a/biology/Zoologie/Hemiphyllodactylus/Hemiphyllodactylus.xlsx
+++ b/biology/Zoologie/Hemiphyllodactylus/Hemiphyllodactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemiphyllodactylus est un genre de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemiphyllodactylus est un genre de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 56 espèces de ce genre se rencontrent en Asie du Sud-Est, en Asie du Sud, en Asie de l'Est et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 56 espèces de ce genre se rencontrent en Asie du Sud-Est, en Asie du Sud, en Asie de l'Est et en Océanie.
 </t>
         </is>
       </c>
@@ -542,65 +556,67 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (22 septembre 2023)[2] :
-Hemiphyllodactylus arakuensis Agarwal et al., 2019[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (22 septembre 2023) :
+Hemiphyllodactylus arakuensis Agarwal et al., 2019
 Hemiphyllodactylus aurantiacus (Beddome, 1870)
 Hemiphyllodactylus banaensis Ngo Van Tri et al., 2014
 Hemiphyllodactylus bintik Grismer et al., 2015
-Hemiphyllodactylus bonkowskii Nguyen et al., 2020[4]
-Hemiphyllodactylus cattien Yushchenko et al., 2023[5]
+Hemiphyllodactylus bonkowskii Nguyen et al., 2020
+Hemiphyllodactylus cattien Yushchenko et al., 2023
 Hemiphyllodactylus changningensis Guo et al., 2015
 Hemiphyllodactylus chiangmaiensis Grismer et al., 2014
 Hemiphyllodactylus cicak Cobos et al., 2016
-Hemiphyllodactylus dalatensis Do et al., 2021[6]
-Hemiphyllodactylus dupanglingensis Zhang et al., 2020[7]
+Hemiphyllodactylus dalatensis Do et al., 2021
+Hemiphyllodactylus dupanglingensis Zhang et al., 2020
 Hemiphyllodactylus dushanensis (Zhou &amp; Liu, 1981)
 Hemiphyllodactylus engganoensis Grismer et al., 2014
-Hemiphyllodactylus flaviventris Sukprasert et al., 2018[8]
+Hemiphyllodactylus flaviventris Sukprasert et al., 2018
 Hemiphyllodactylus ganoklonis Zug, 2010
-Hemiphyllodactylus goaensis Khandekar et al., 2021[9]
+Hemiphyllodactylus goaensis Khandekar et al., 2021
 Hemiphyllodactylus harterti (Werner, 1900)
-Hemiphyllodactylus hongkongensis Sung et al., 2018[10]
-Hemiphyllodactylus huishuiensis Yan et al., 2016[11]
-Hemiphyllodactylus indosobrinus Eliades et al., 2019[12]
+Hemiphyllodactylus hongkongensis Sung et al., 2018
+Hemiphyllodactylus huishuiensis Yan et al., 2016
+Hemiphyllodactylus indosobrinus Eliades et al., 2019
 Hemiphyllodactylus insularis Taylor, 1918
 Hemiphyllodactylus jinpingensis (Zhou &amp; Liu, 1981)
-Hemiphyllodactylus jnana Agarwal et al., 2019[3]
-Hemiphyllodactylus khlonglanensis Sukprasert et al., 2018[8]
+Hemiphyllodactylus jnana Agarwal et al., 2019
+Hemiphyllodactylus khlonglanensis Sukprasert et al., 2018
 Hemiphyllodactylus kiziriani Nguyen et al., 2014
-Hemiphyllodactylus kolliensis Agarwal et al., 2019[3]
-Hemiphyllodactylus kyaiktiyoensis Grismer et al., 2020[13]
+Hemiphyllodactylus kolliensis Agarwal et al., 2019
+Hemiphyllodactylus kyaiktiyoensis Grismer et al., 2020
 Hemiphyllodactylus larutensis (Boulenger, 1900)
-Hemiphyllodactylus linnwayensis Grismer et al., 2017[14]
+Hemiphyllodactylus linnwayensis Grismer et al., 2017
 Hemiphyllodactylus longlingensis (Zhou &amp; Liu, 1981)
-Hemiphyllodactylus lungcuensis Luu et al., 2023[15]
+Hemiphyllodactylus lungcuensis Luu et al., 2023
 Hemiphyllodactylus margarethae Brongersma, 1931
-Hemiphyllodactylus minimus Mohapatra et al., 2020[16]
-Hemiphyllodactylus montawaensis Grismer et al., 2017[14]
-Hemiphyllodactylus nahangensis Do et al., 2020[17]
-Hemiphyllodactylus ngocsonensis Nguyen et al., 2020[4]
-Hemiphyllodactylus ngwelwini Grismer et al., 2020[13]
-Hemiphyllodactylus nilgiriensis Agarwal et al., 2020[18]
-Hemiphyllodactylus pardalis Grismer et al., 2020[19]
-Hemiphyllodactylus peninsularis Agarwal et al., 2020[18]
-Hemiphyllodactylus pinlaungensis Grismer et al., 2020[13]
-Hemiphyllodactylus serpispecus Eliades et al., 2019[12]
-Hemiphyllodactylus simaoensis Agung et al., 2022[20]
+Hemiphyllodactylus minimus Mohapatra et al., 2020
+Hemiphyllodactylus montawaensis Grismer et al., 2017
+Hemiphyllodactylus nahangensis Do et al., 2020
+Hemiphyllodactylus ngocsonensis Nguyen et al., 2020
+Hemiphyllodactylus ngwelwini Grismer et al., 2020
+Hemiphyllodactylus nilgiriensis Agarwal et al., 2020
+Hemiphyllodactylus pardalis Grismer et al., 2020
+Hemiphyllodactylus peninsularis Agarwal et al., 2020
+Hemiphyllodactylus pinlaungensis Grismer et al., 2020
+Hemiphyllodactylus serpispecus Eliades et al., 2019
+Hemiphyllodactylus simaoensis Agung et al., 2022
 Hemiphyllodactylus tehtarik Grismer et al., 2013
 Hemiphyllodactylus titiwangsaensis Zug, 2010
-Hemiphyllodactylus tonywhitteni Grismer et al., 2017[14]
+Hemiphyllodactylus tonywhitteni Grismer et al., 2017
 Hemiphyllodactylus typus Bleeker, 1860
-Hemiphyllodactylus uga Grismer et al., 2018[21]
-Hemiphyllodactylus yanshanensis Agung et al., 2022[20]
+Hemiphyllodactylus uga Grismer et al., 2018
+Hemiphyllodactylus yanshanensis Agung et al., 2022
 Hemiphyllodactylus yunnanensis (Boulenger, 1903)
-Hemiphyllodactylus ywanganensis Grismer et al., 2018[21]
-Hemiphyllodactylus zalonicus Grismer et al., 2021[22]
-Hemiphyllodactylus zayuensis Jiang et al., 2020[23]
-Hemiphyllodactylus zhutangxiangensis Agung et al., 2021[24]
+Hemiphyllodactylus ywanganensis Grismer et al., 2018
+Hemiphyllodactylus zalonicus Grismer et al., 2021
+Hemiphyllodactylus zayuensis Jiang et al., 2020
+Hemiphyllodactylus zhutangxiangensis Agung et al., 2021
 Hemiphyllodactylus zugi Nguyen et al., 2013
-Hemiphyllodactylus zwegabinensis Grismer et al., 2020[13]</t>
+Hemiphyllodactylus zwegabinensis Grismer et al., 2020</t>
         </is>
       </c>
     </row>
@@ -628,7 +644,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bleeker, 1860 : Reptilien van Agam aangeboden door E.W.A. Ludeking. Natuurkundig Tijdschrift voor Nederlandsch Indie, Batavia, vol. 20, p. 325-329 (texte intégral).</t>
         </is>
